--- a/data_output/Excess Mortality/Countries/2021/2021_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(65-69).xlsx
+++ b/data_output/Excess Mortality/Countries/2021/2021_AGE_AGGREGATED_TOTAL_EU_['Female', 'Male', 'Total']_(65-69).xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="436">
   <si>
     <t>Sex</t>
   </si>
@@ -193,7 +193,7 @@
     <t>664.8 (±23.2)</t>
   </si>
   <si>
-    <t>947.2 (±18.7)</t>
+    <t>998.0 (±21.4)</t>
   </si>
   <si>
     <t>1402.4 (±26.6)</t>
@@ -205,7 +205,7 @@
     <t>40.8 (±3.7)</t>
   </si>
   <si>
-    <t>1135.4 (±39.4)</t>
+    <t>1214.4 (±42.9)</t>
   </si>
   <si>
     <t>650.0 (±16.2)</t>
@@ -214,7 +214,7 @@
     <t>180.2 (±4.4)</t>
   </si>
   <si>
-    <t>537.8 (±20.1)</t>
+    <t>570.0 (±25.3)</t>
   </si>
   <si>
     <t>4520.4 (±88.3)</t>
@@ -268,7 +268,7 @@
     <t>740.4 (±62.9)</t>
   </si>
   <si>
-    <t>510.2 (±29.5)</t>
+    <t>707.6 (±43.4)</t>
   </si>
   <si>
     <t>173.8 (±14.2)</t>
@@ -277,7 +277,7 @@
     <t>1904.8 (±74.8)</t>
   </si>
   <si>
-    <t>826.8 (±67.9)</t>
+    <t>868.8 (±72.4)</t>
   </si>
   <si>
     <t>487.8 (±8.2)</t>
@@ -286,7 +286,7 @@
     <t>-32.8 (±23.2)</t>
   </si>
   <si>
-    <t>35.8 (±18.7)</t>
+    <t>41.0 (±21.4)</t>
   </si>
   <si>
     <t>573.6 (±26.6)</t>
@@ -298,7 +298,7 @@
     <t>12.2 (±3.7)</t>
   </si>
   <si>
-    <t>433.6 (±39.4)</t>
+    <t>475.6 (±42.9)</t>
   </si>
   <si>
     <t>-25.0 (±16.2)</t>
@@ -307,7 +307,7 @@
     <t>44.8 (±4.4)</t>
   </si>
   <si>
-    <t>-70.8 (±20.1)</t>
+    <t>-76.0 (±25.3)</t>
   </si>
   <si>
     <t>295.6 (±88.3)</t>
@@ -361,7 +361,7 @@
     <t>12.6 (±62.9)</t>
   </si>
   <si>
-    <t>449.8 (±29.5)</t>
+    <t>520.4 (±43.4)</t>
   </si>
   <si>
     <t>9.2 (±14.2)</t>
@@ -370,7 +370,7 @@
     <t>376.2 (±74.8)</t>
   </si>
   <si>
-    <t>-128.8 (±67.9)</t>
+    <t>-129.8 (±72.4)</t>
   </si>
   <si>
     <t>-81.8 (±8.2)</t>
@@ -379,7 +379,7 @@
     <t>-4.9% (±3.2%)</t>
   </si>
   <si>
-    <t>3.8% (±2.0%)</t>
+    <t>4.1% (±2.2%)</t>
   </si>
   <si>
     <t>40.9% (±2.6%)</t>
@@ -391,7 +391,7 @@
     <t>29.9% (±10.8%)</t>
   </si>
   <si>
-    <t>38.2% (±4.6%)</t>
+    <t>39.2% (±4.8%)</t>
   </si>
   <si>
     <t>-3.8% (±2.4%)</t>
@@ -400,7 +400,7 @@
     <t>24.9% (±3.0%)</t>
   </si>
   <si>
-    <t>-13.2% (±3.1%)</t>
+    <t>-13.3% (±3.7%)</t>
   </si>
   <si>
     <t>6.5% (±2.0%)</t>
@@ -454,7 +454,7 @@
     <t>1.7% (±8.0%)</t>
   </si>
   <si>
-    <t>88.2% (±10.3%)</t>
+    <t>73.5% (±10.0%)</t>
   </si>
   <si>
     <t>5.3% (±8.0%)</t>
@@ -463,7 +463,7 @@
     <t>19.8% (±4.6%)</t>
   </si>
   <si>
-    <t>-15.6% (±6.4%)</t>
+    <t>-14.9% (±6.6%)</t>
   </si>
   <si>
     <t>-16.8% (±1.3%)</t>
@@ -472,7 +472,7 @@
     <t>-13.8(±9.8)</t>
   </si>
   <si>
-    <t>11.1(±5.9)</t>
+    <t>12.8(±6.6)</t>
   </si>
   <si>
     <t>221.8(±10.3)</t>
@@ -484,7 +484,7 @@
     <t>52.8(±16.0)</t>
   </si>
   <si>
-    <t>119.4(±10.8)</t>
+    <t>130.9(±11.8)</t>
   </si>
   <si>
     <t>-15.3(±9.9)</t>
@@ -493,7 +493,7 @@
     <t>98.7(±9.7)</t>
   </si>
   <si>
-    <t>-38.1(±10.8)</t>
+    <t>-40.9(±13.6)</t>
   </si>
   <si>
     <t>14.3(±4.3)</t>
@@ -547,7 +547,7 @@
     <t>4.5(±22.6)</t>
   </si>
   <si>
-    <t>248.0(±16.3)</t>
+    <t>287.0(±23.9)</t>
   </si>
   <si>
     <t>13.4(±20.6)</t>
@@ -556,7 +556,7 @@
     <t>29.6(±5.9)</t>
   </si>
   <si>
-    <t>-47.2(±24.9)</t>
+    <t>-47.6(±26.6)</t>
   </si>
   <si>
     <t>-36.7(±3.7)</t>
@@ -568,7 +568,7 @@
     <t>1067.4 (±26.6)</t>
   </si>
   <si>
-    <t>1617.6 (±51.7)</t>
+    <t>1713.4 (±49.1)</t>
   </si>
   <si>
     <t>2591.8 (±100.1)</t>
@@ -580,7 +580,7 @@
     <t>77.4 (±8.3)</t>
   </si>
   <si>
-    <t>2077.0 (±87.8)</t>
+    <t>2221.2 (±91.3)</t>
   </si>
   <si>
     <t>983.8 (±47.5)</t>
@@ -589,7 +589,7 @@
     <t>336.8 (±9.6)</t>
   </si>
   <si>
-    <t>987.8 (±50.4)</t>
+    <t>1041.8 (±50.5)</t>
   </si>
   <si>
     <t>8825.8 (±143.5)</t>
@@ -643,7 +643,7 @@
     <t>1196.4 (±108.0)</t>
   </si>
   <si>
-    <t>963.0 (±52.2)</t>
+    <t>1328.2 (±62.7)</t>
   </si>
   <si>
     <t>345.4 (±19.2)</t>
@@ -652,7 +652,7 @@
     <t>4270.8 (±91.0)</t>
   </si>
   <si>
-    <t>1175.6 (±89.6)</t>
+    <t>1236.0 (±93.8)</t>
   </si>
   <si>
     <t>792.2 (±41.5)</t>
@@ -661,7 +661,7 @@
     <t>-25.4 (±26.6)</t>
   </si>
   <si>
-    <t>-96.6 (±51.7)</t>
+    <t>-88.4 (±49.1)</t>
   </si>
   <si>
     <t>660.2 (±100.1)</t>
@@ -673,7 +673,7 @@
     <t>-13.4 (±8.3)</t>
   </si>
   <si>
-    <t>1098.0 (±87.8)</t>
+    <t>1192.8 (±91.3)</t>
   </si>
   <si>
     <t>-102.8 (±47.5)</t>
@@ -682,7 +682,7 @@
     <t>71.2 (±9.6)</t>
   </si>
   <si>
-    <t>-133.8 (±50.4)</t>
+    <t>-140.8 (±50.5)</t>
   </si>
   <si>
     <t>316.2 (±143.5)</t>
@@ -736,7 +736,7 @@
     <t>122.6 (±108.0)</t>
   </si>
   <si>
-    <t>898.0 (±52.2)</t>
+    <t>1012.8 (±62.7)</t>
   </si>
   <si>
     <t>22.6 (±19.2)</t>
@@ -745,7 +745,7 @@
     <t>786.2 (±91.0)</t>
   </si>
   <si>
-    <t>-80.6 (±89.6)</t>
+    <t>-84.0 (±93.8)</t>
   </si>
   <si>
     <t>-19.2 (±41.5)</t>
@@ -754,7 +754,7 @@
     <t>-2.4% (±2.4%)</t>
   </si>
   <si>
-    <t>-6.0% (±2.9%)</t>
+    <t>-5.2% (±2.6%)</t>
   </si>
   <si>
     <t>25.5% (±4.7%)</t>
@@ -766,7 +766,7 @@
     <t>-17.3% (±8.0%)</t>
   </si>
   <si>
-    <t>52.9% (±6.2%)</t>
+    <t>53.7% (±6.1%)</t>
   </si>
   <si>
     <t>-10.4% (±4.2%)</t>
@@ -775,7 +775,7 @@
     <t>21.1% (±3.3%)</t>
   </si>
   <si>
-    <t>-13.5% (±4.2%)</t>
+    <t>-13.5% (±4.0%)</t>
   </si>
   <si>
     <t>3.6% (±1.7%)</t>
@@ -829,7 +829,7 @@
     <t>10.2% (±9.1%)</t>
   </si>
   <si>
-    <t>93.3% (±10.0%)</t>
+    <t>76.3% (±8.0%)</t>
   </si>
   <si>
     <t>6.5% (±5.6%)</t>
@@ -838,7 +838,7 @@
     <t>18.4% (±2.5%)</t>
   </si>
   <si>
-    <t>-6.9% (±6.6%)</t>
+    <t>-6.8% (±6.6%)</t>
   </si>
   <si>
     <t>-2.4% (±4.9%)</t>
@@ -847,7 +847,7 @@
     <t>-11.9(±12.5)</t>
   </si>
   <si>
-    <t>-32.0(±17.1)</t>
+    <t>-29.2(±16.2)</t>
   </si>
   <si>
     <t>321.6(±48.8)</t>
@@ -859,7 +859,7 @@
     <t>-61.4(±38.0)</t>
   </si>
   <si>
-    <t>347.8(±27.8)</t>
+    <t>377.9(±28.9)</t>
   </si>
   <si>
     <t>-66.0(±30.5)</t>
@@ -868,7 +868,7 @@
     <t>221.8(±29.9)</t>
   </si>
   <si>
-    <t>-78.1(±29.4)</t>
+    <t>-82.2(±29.5)</t>
   </si>
   <si>
     <t>17.2(±7.8)</t>
@@ -922,7 +922,7 @@
     <t>52.0(±45.9)</t>
   </si>
   <si>
-    <t>606.5(±35.2)</t>
+    <t>684.0(±42.4)</t>
   </si>
   <si>
     <t>34.6(±29.3)</t>
@@ -931,7 +931,7 @@
     <t>67.8(±7.8)</t>
   </si>
   <si>
-    <t>-30.2(±33.6)</t>
+    <t>-31.4(±35.1)</t>
   </si>
   <si>
     <t>-9.2(±19.9)</t>
@@ -940,13 +940,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Germany</t>
-  </si>
-  <si>
     <t>1732.2 (±42.1)</t>
   </si>
   <si>
-    <t>2564.8 (±60.5)</t>
+    <t>2711.4 (±60.5)</t>
   </si>
   <si>
     <t>3994.2 (±122.4)</t>
@@ -958,7 +955,7 @@
     <t>118.2 (±5.6)</t>
   </si>
   <si>
-    <t>3212.4 (±112.7)</t>
+    <t>3435.6 (±120.2)</t>
   </si>
   <si>
     <t>1633.8 (±54.9)</t>
@@ -967,15 +964,12 @@
     <t>517.0 (±9.3)</t>
   </si>
   <si>
-    <t>1525.6 (±63.7)</t>
+    <t>1611.8 (±69.9)</t>
   </si>
   <si>
     <t>13346.2 (±188.4)</t>
   </si>
   <si>
-    <t>21929.9 (±7743.2)</t>
-  </si>
-  <si>
     <t>1955.8 (±93.4)</t>
   </si>
   <si>
@@ -1024,7 +1018,7 @@
     <t>1936.8 (±169.8)</t>
   </si>
   <si>
-    <t>1473.2 (±78.7)</t>
+    <t>2035.8 (±103.4)</t>
   </si>
   <si>
     <t>519.2 (±31.6)</t>
@@ -1033,7 +1027,7 @@
     <t>6175.6 (±165.3)</t>
   </si>
   <si>
-    <t>2002.4 (±154.6)</t>
+    <t>2104.8 (±163.6)</t>
   </si>
   <si>
     <t>1280.0 (±45.0)</t>
@@ -1042,7 +1036,7 @@
     <t>-58.2 (±42.1)</t>
   </si>
   <si>
-    <t>-60.8 (±60.5)</t>
+    <t>-47.4 (±60.5)</t>
   </si>
   <si>
     <t>1233.8 (±122.4)</t>
@@ -1054,7 +1048,7 @@
     <t>-1.2 (±5.6)</t>
   </si>
   <si>
-    <t>1531.6 (±112.7)</t>
+    <t>1668.4 (±120.2)</t>
   </si>
   <si>
     <t>-127.8 (±54.9)</t>
@@ -1063,15 +1057,12 @@
     <t>116.0 (±9.3)</t>
   </si>
   <si>
-    <t>-204.6 (±63.7)</t>
+    <t>-216.8 (±69.9)</t>
   </si>
   <si>
     <t>611.8 (±188.4)</t>
   </si>
   <si>
-    <t>1803.1 (±7743.2)</t>
-  </si>
-  <si>
     <t>180.2 (±93.4)</t>
   </si>
   <si>
@@ -1120,7 +1111,7 @@
     <t>135.2 (±169.8)</t>
   </si>
   <si>
-    <t>1347.8 (±78.7)</t>
+    <t>1533.2 (±103.4)</t>
   </si>
   <si>
     <t>31.8 (±31.6)</t>
@@ -1129,7 +1120,7 @@
     <t>1162.4 (±165.3)</t>
   </si>
   <si>
-    <t>-209.4 (±154.6)</t>
+    <t>-213.8 (±163.6)</t>
   </si>
   <si>
     <t>-101.0 (±45.0)</t>
@@ -1138,7 +1129,7 @@
     <t>-3.4% (±2.3%)</t>
   </si>
   <si>
-    <t>-2.4% (±2.2%)</t>
+    <t>-1.7% (±2.2%)</t>
   </si>
   <si>
     <t>30.9% (±3.9%)</t>
@@ -1150,7 +1141,7 @@
     <t>-1.0% (±4.5%)</t>
   </si>
   <si>
-    <t>47.7% (±5.0%)</t>
+    <t>48.6% (±5.1%)</t>
   </si>
   <si>
     <t>-7.8% (±3.0%)</t>
@@ -1159,15 +1150,12 @@
     <t>22.4% (±2.1%)</t>
   </si>
   <si>
-    <t>-13.4% (±3.5%)</t>
+    <t>-13.5% (±3.5%)</t>
   </si>
   <si>
     <t>4.6% (±1.5%)</t>
   </si>
   <si>
-    <t>8.2% (±28.2%)</t>
-  </si>
-  <si>
     <t>9.2% (±5.0%)</t>
   </si>
   <si>
@@ -1216,7 +1204,7 @@
     <t>7.0% (±8.6%)</t>
   </si>
   <si>
-    <t>91.5% (±9.7%)</t>
+    <t>75.3% (±8.5%)</t>
   </si>
   <si>
     <t>6.1% (±6.1%)</t>
@@ -1225,7 +1213,7 @@
     <t>18.8% (±3.1%)</t>
   </si>
   <si>
-    <t>-10.5% (±6.4%)</t>
+    <t>-10.2% (±6.4%)</t>
   </si>
   <si>
     <t>-7.9% (±3.1%)</t>
@@ -1234,7 +1222,7 @@
     <t>-12.9(±9.3)</t>
   </si>
   <si>
-    <t>-9.8(±9.8)</t>
+    <t>-7.6(±9.7)</t>
   </si>
   <si>
     <t>266.0(±26.4)</t>
@@ -1246,7 +1234,7 @@
     <t>-2.7(±12.5)</t>
   </si>
   <si>
-    <t>225.6(±16.6)</t>
+    <t>245.7(±17.7)</t>
   </si>
   <si>
     <t>-40.0(±17.2)</t>
@@ -1255,15 +1243,12 @@
     <t>149.7(±12.0)</t>
   </si>
   <si>
-    <t>-57.3(±17.8)</t>
+    <t>-60.7(±19.5)</t>
   </si>
   <si>
     <t>15.7(±4.8)</t>
   </si>
   <si>
-    <t>37.1(±159.4)</t>
-  </si>
-  <si>
     <t>29.6(±15.3)</t>
   </si>
   <si>
@@ -1312,7 +1297,7 @@
     <t>26.3(±33.0)</t>
   </si>
   <si>
-    <t>409.2(±23.9)</t>
+    <t>465.4(±31.4)</t>
   </si>
   <si>
     <t>23.7(±23.5)</t>
@@ -1321,7 +1306,7 @@
     <t>47.8(±6.8)</t>
   </si>
   <si>
-    <t>-38.8(±28.7)</t>
+    <t>-39.6(±30.3)</t>
   </si>
   <si>
     <t>-23.5(±10.5)</t>
@@ -1865,52 +1850,52 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>941</v>
+        <v>998</v>
       </c>
       <c r="D3">
-        <v>935</v>
+        <v>984</v>
       </c>
       <c r="E3">
-        <v>945</v>
+        <v>994</v>
       </c>
       <c r="F3">
-        <v>988</v>
+        <v>1043</v>
       </c>
       <c r="G3">
-        <v>927</v>
+        <v>971</v>
       </c>
       <c r="H3">
-        <v>983</v>
+        <v>1039</v>
       </c>
       <c r="I3">
-        <v>947.2</v>
+        <v>998</v>
       </c>
       <c r="J3">
-        <v>21.3</v>
+        <v>24.4</v>
       </c>
       <c r="K3">
         <v>1.96</v>
       </c>
       <c r="L3">
-        <v>18.7</v>
+        <v>21.4</v>
       </c>
       <c r="M3">
-        <v>928.5</v>
+        <v>976.6</v>
       </c>
       <c r="N3">
-        <v>965.9000000000001</v>
+        <v>1019.4</v>
       </c>
       <c r="O3">
-        <v>35.8</v>
+        <v>41</v>
       </c>
       <c r="P3">
-        <v>18.7</v>
+        <v>21.4</v>
       </c>
       <c r="Q3">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S3" t="s">
         <v>58</v>
@@ -1925,10 +1910,10 @@
         <v>321281</v>
       </c>
       <c r="W3">
-        <v>11.1</v>
+        <v>12.8</v>
       </c>
       <c r="X3">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="Y3" t="s">
         <v>151</v>
@@ -2173,52 +2158,52 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>1202</v>
+        <v>1286</v>
       </c>
       <c r="D7">
-        <v>1072</v>
+        <v>1148</v>
       </c>
       <c r="E7">
-        <v>1160</v>
+        <v>1241</v>
       </c>
       <c r="F7">
-        <v>1140</v>
+        <v>1223</v>
       </c>
       <c r="G7">
-        <v>1103</v>
+        <v>1174</v>
       </c>
       <c r="H7">
-        <v>1569</v>
+        <v>1690</v>
       </c>
       <c r="I7">
-        <v>1135.4</v>
+        <v>1214.4</v>
       </c>
       <c r="J7">
-        <v>45</v>
+        <v>48.9</v>
       </c>
       <c r="K7">
         <v>1.96</v>
       </c>
       <c r="L7">
-        <v>39.4</v>
+        <v>42.9</v>
       </c>
       <c r="M7">
-        <v>1096</v>
+        <v>1171.5</v>
       </c>
       <c r="N7">
-        <v>1174.8</v>
+        <v>1257.3</v>
       </c>
       <c r="O7">
-        <v>433.6</v>
+        <v>475.6</v>
       </c>
       <c r="P7">
-        <v>39.4</v>
+        <v>42.9</v>
       </c>
       <c r="Q7">
-        <v>38.2</v>
+        <v>39.2</v>
       </c>
       <c r="R7">
-        <v>4.6</v>
+        <v>4.8</v>
       </c>
       <c r="S7" t="s">
         <v>62</v>
@@ -2233,10 +2218,10 @@
         <v>363248</v>
       </c>
       <c r="W7">
-        <v>119.4</v>
+        <v>130.9</v>
       </c>
       <c r="X7">
-        <v>10.8</v>
+        <v>11.8</v>
       </c>
       <c r="Y7" t="s">
         <v>155</v>
@@ -2404,52 +2389,52 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>578</v>
+        <v>622</v>
       </c>
       <c r="D10">
-        <v>529</v>
+        <v>566</v>
       </c>
       <c r="E10">
-        <v>542</v>
+        <v>573</v>
       </c>
       <c r="F10">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="G10">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="H10">
-        <v>467</v>
+        <v>494</v>
       </c>
       <c r="I10">
-        <v>537.8</v>
+        <v>570</v>
       </c>
       <c r="J10">
-        <v>22.9</v>
+        <v>28.9</v>
       </c>
       <c r="K10">
         <v>1.96</v>
       </c>
       <c r="L10">
-        <v>20.1</v>
+        <v>25.3</v>
       </c>
       <c r="M10">
-        <v>517.6999999999999</v>
+        <v>544.7</v>
       </c>
       <c r="N10">
-        <v>557.9</v>
+        <v>595.3</v>
       </c>
       <c r="O10">
-        <v>-70.8</v>
+        <v>-76</v>
       </c>
       <c r="P10">
-        <v>20.1</v>
+        <v>25.3</v>
       </c>
       <c r="Q10">
-        <v>-13.2</v>
+        <v>-13.3</v>
       </c>
       <c r="R10">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="S10" t="s">
         <v>65</v>
@@ -2464,10 +2449,10 @@
         <v>185685</v>
       </c>
       <c r="W10">
-        <v>-38.1</v>
+        <v>-40.9</v>
       </c>
       <c r="X10">
-        <v>10.8</v>
+        <v>13.6</v>
       </c>
       <c r="Y10" t="s">
         <v>158</v>
@@ -3790,52 +3775,52 @@
         <v>52</v>
       </c>
       <c r="C28">
-        <v>510</v>
+        <v>695</v>
       </c>
       <c r="D28">
-        <v>449</v>
+        <v>626</v>
       </c>
       <c r="E28">
-        <v>512</v>
+        <v>703</v>
       </c>
       <c r="F28">
-        <v>548</v>
+        <v>773</v>
       </c>
       <c r="G28">
-        <v>532</v>
+        <v>741</v>
       </c>
       <c r="H28">
-        <v>960</v>
+        <v>1228</v>
       </c>
       <c r="I28">
-        <v>510.2</v>
+        <v>707.6</v>
       </c>
       <c r="J28">
-        <v>33.6</v>
+        <v>49.5</v>
       </c>
       <c r="K28">
         <v>1.96</v>
       </c>
       <c r="L28">
-        <v>29.5</v>
+        <v>43.4</v>
       </c>
       <c r="M28">
-        <v>480.7</v>
+        <v>664.2</v>
       </c>
       <c r="N28">
-        <v>539.7</v>
+        <v>751</v>
       </c>
       <c r="O28">
-        <v>449.8</v>
+        <v>520.4</v>
       </c>
       <c r="P28">
-        <v>29.5</v>
+        <v>43.4</v>
       </c>
       <c r="Q28">
-        <v>88.2</v>
+        <v>73.5</v>
       </c>
       <c r="R28">
-        <v>10.3</v>
+        <v>10</v>
       </c>
       <c r="S28" t="s">
         <v>83</v>
@@ -3850,10 +3835,10 @@
         <v>181339</v>
       </c>
       <c r="W28">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="X28">
-        <v>16.3</v>
+        <v>23.9</v>
       </c>
       <c r="Y28" t="s">
         <v>176</v>
@@ -4021,52 +4006,52 @@
         <v>55</v>
       </c>
       <c r="C31">
-        <v>922</v>
+        <v>965</v>
       </c>
       <c r="D31">
-        <v>879</v>
+        <v>930</v>
       </c>
       <c r="E31">
-        <v>819</v>
+        <v>856</v>
       </c>
       <c r="F31">
-        <v>822</v>
+        <v>869</v>
       </c>
       <c r="G31">
-        <v>692</v>
+        <v>724</v>
       </c>
       <c r="H31">
-        <v>698</v>
+        <v>739</v>
       </c>
       <c r="I31">
-        <v>826.8</v>
+        <v>868.8</v>
       </c>
       <c r="J31">
-        <v>77.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K31">
         <v>1.96</v>
       </c>
       <c r="L31">
-        <v>67.90000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="M31">
-        <v>758.9</v>
+        <v>796.4</v>
       </c>
       <c r="N31">
-        <v>894.6999999999999</v>
+        <v>941.1999999999999</v>
       </c>
       <c r="O31">
-        <v>-128.8</v>
+        <v>-129.8</v>
       </c>
       <c r="P31">
-        <v>67.90000000000001</v>
+        <v>72.40000000000001</v>
       </c>
       <c r="Q31">
-        <v>-15.6</v>
+        <v>-14.9</v>
       </c>
       <c r="R31">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="S31" t="s">
         <v>86</v>
@@ -4081,10 +4066,10 @@
         <v>272942</v>
       </c>
       <c r="W31">
-        <v>-47.2</v>
+        <v>-47.6</v>
       </c>
       <c r="X31">
-        <v>24.9</v>
+        <v>26.6</v>
       </c>
       <c r="Y31" t="s">
         <v>179</v>
@@ -4342,52 +4327,52 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>1668</v>
+        <v>1772</v>
       </c>
       <c r="D3">
-        <v>1675</v>
+        <v>1761</v>
       </c>
       <c r="E3">
-        <v>1585</v>
+        <v>1691</v>
       </c>
       <c r="F3">
-        <v>1642</v>
+        <v>1726</v>
       </c>
       <c r="G3">
-        <v>1518</v>
+        <v>1617</v>
       </c>
       <c r="H3">
-        <v>1521</v>
+        <v>1625</v>
       </c>
       <c r="I3">
-        <v>1617.6</v>
+        <v>1713.4</v>
       </c>
       <c r="J3">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K3">
         <v>1.96</v>
       </c>
       <c r="L3">
-        <v>51.7</v>
+        <v>49.1</v>
       </c>
       <c r="M3">
-        <v>1565.9</v>
+        <v>1664.3</v>
       </c>
       <c r="N3">
-        <v>1669.3</v>
+        <v>1762.5</v>
       </c>
       <c r="O3">
-        <v>-96.59999999999999</v>
+        <v>-88.40000000000001</v>
       </c>
       <c r="P3">
-        <v>51.7</v>
+        <v>49.1</v>
       </c>
       <c r="Q3">
-        <v>-6</v>
+        <v>-5.2</v>
       </c>
       <c r="R3">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="S3" t="s">
         <v>183</v>
@@ -4402,10 +4387,10 @@
         <v>302248</v>
       </c>
       <c r="W3">
-        <v>-32</v>
+        <v>-29.2</v>
       </c>
       <c r="X3">
-        <v>17.1</v>
+        <v>16.2</v>
       </c>
       <c r="Y3" t="s">
         <v>276</v>
@@ -4650,52 +4635,52 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>2104</v>
+        <v>2258</v>
       </c>
       <c r="D7">
-        <v>2057</v>
+        <v>2211</v>
       </c>
       <c r="E7">
-        <v>2146</v>
+        <v>2289</v>
       </c>
       <c r="F7">
-        <v>2183</v>
+        <v>2322</v>
       </c>
       <c r="G7">
-        <v>1895</v>
+        <v>2026</v>
       </c>
       <c r="H7">
-        <v>3175</v>
+        <v>3414</v>
       </c>
       <c r="I7">
-        <v>2077</v>
+        <v>2221.2</v>
       </c>
       <c r="J7">
-        <v>100.2</v>
+        <v>104.2</v>
       </c>
       <c r="K7">
         <v>1.96</v>
       </c>
       <c r="L7">
-        <v>87.8</v>
+        <v>91.3</v>
       </c>
       <c r="M7">
-        <v>1989.2</v>
+        <v>2129.9</v>
       </c>
       <c r="N7">
-        <v>2164.8</v>
+        <v>2312.5</v>
       </c>
       <c r="O7">
-        <v>1098</v>
+        <v>1192.8</v>
       </c>
       <c r="P7">
-        <v>87.8</v>
+        <v>91.3</v>
       </c>
       <c r="Q7">
-        <v>52.9</v>
+        <v>53.7</v>
       </c>
       <c r="R7">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="S7" t="s">
         <v>187</v>
@@ -4710,10 +4695,10 @@
         <v>315679</v>
       </c>
       <c r="W7">
-        <v>347.8</v>
+        <v>377.9</v>
       </c>
       <c r="X7">
-        <v>27.8</v>
+        <v>28.9</v>
       </c>
       <c r="Y7" t="s">
         <v>280</v>
@@ -4881,52 +4866,52 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>1037</v>
+        <v>1095</v>
       </c>
       <c r="D10">
-        <v>1070</v>
+        <v>1123</v>
       </c>
       <c r="E10">
-        <v>972</v>
+        <v>1022</v>
       </c>
       <c r="F10">
-        <v>945</v>
+        <v>995</v>
       </c>
       <c r="G10">
-        <v>915</v>
+        <v>974</v>
       </c>
       <c r="H10">
-        <v>854</v>
+        <v>901</v>
       </c>
       <c r="I10">
-        <v>987.8</v>
+        <v>1041.8</v>
       </c>
       <c r="J10">
-        <v>57.5</v>
+        <v>57.6</v>
       </c>
       <c r="K10">
         <v>1.96</v>
       </c>
       <c r="L10">
-        <v>50.4</v>
+        <v>50.5</v>
       </c>
       <c r="M10">
-        <v>937.4</v>
+        <v>991.3</v>
       </c>
       <c r="N10">
-        <v>1038.2</v>
+        <v>1092.3</v>
       </c>
       <c r="O10">
-        <v>-133.8</v>
+        <v>-140.8</v>
       </c>
       <c r="P10">
-        <v>50.4</v>
+        <v>50.5</v>
       </c>
       <c r="Q10">
         <v>-13.5</v>
       </c>
       <c r="R10">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="S10" t="s">
         <v>190</v>
@@ -4941,10 +4926,10 @@
         <v>171275</v>
       </c>
       <c r="W10">
-        <v>-78.09999999999999</v>
+        <v>-82.2</v>
       </c>
       <c r="X10">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="Y10" t="s">
         <v>283</v>
@@ -6267,52 +6252,52 @@
         <v>52</v>
       </c>
       <c r="C28">
-        <v>905</v>
+        <v>1255</v>
       </c>
       <c r="D28">
-        <v>882</v>
+        <v>1232</v>
       </c>
       <c r="E28">
-        <v>981</v>
+        <v>1357</v>
       </c>
       <c r="F28">
-        <v>1014</v>
+        <v>1409</v>
       </c>
       <c r="G28">
-        <v>1033</v>
+        <v>1388</v>
       </c>
       <c r="H28">
-        <v>1861</v>
+        <v>2341</v>
       </c>
       <c r="I28">
-        <v>963</v>
+        <v>1328.2</v>
       </c>
       <c r="J28">
-        <v>59.6</v>
+        <v>71.5</v>
       </c>
       <c r="K28">
         <v>1.96</v>
       </c>
       <c r="L28">
-        <v>52.2</v>
+        <v>62.7</v>
       </c>
       <c r="M28">
-        <v>910.8</v>
+        <v>1265.5</v>
       </c>
       <c r="N28">
-        <v>1015.2</v>
+        <v>1390.9</v>
       </c>
       <c r="O28">
-        <v>898</v>
+        <v>1012.8</v>
       </c>
       <c r="P28">
-        <v>52.2</v>
+        <v>62.7</v>
       </c>
       <c r="Q28">
-        <v>93.3</v>
+        <v>76.3</v>
       </c>
       <c r="R28">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S28" t="s">
         <v>208</v>
@@ -6327,10 +6312,10 @@
         <v>148066</v>
       </c>
       <c r="W28">
-        <v>606.5</v>
+        <v>684</v>
       </c>
       <c r="X28">
-        <v>35.2</v>
+        <v>42.4</v>
       </c>
       <c r="Y28" t="s">
         <v>301</v>
@@ -6498,49 +6483,49 @@
         <v>55</v>
       </c>
       <c r="C31">
-        <v>1301</v>
+        <v>1374</v>
       </c>
       <c r="D31">
-        <v>1284</v>
+        <v>1342</v>
       </c>
       <c r="E31">
-        <v>1101</v>
+        <v>1157</v>
       </c>
       <c r="F31">
-        <v>1153</v>
+        <v>1213</v>
       </c>
       <c r="G31">
-        <v>1039</v>
+        <v>1094</v>
       </c>
       <c r="H31">
-        <v>1095</v>
+        <v>1152</v>
       </c>
       <c r="I31">
-        <v>1175.6</v>
+        <v>1236</v>
       </c>
       <c r="J31">
-        <v>102.2</v>
+        <v>107</v>
       </c>
       <c r="K31">
         <v>1.96</v>
       </c>
       <c r="L31">
-        <v>89.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="M31">
-        <v>1086</v>
+        <v>1142.2</v>
       </c>
       <c r="N31">
-        <v>1265.2</v>
+        <v>1329.8</v>
       </c>
       <c r="O31">
-        <v>-80.59999999999999</v>
+        <v>-84</v>
       </c>
       <c r="P31">
-        <v>89.59999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="Q31">
-        <v>-6.9</v>
+        <v>-6.8</v>
       </c>
       <c r="R31">
         <v>6.6</v>
@@ -6558,10 +6543,10 @@
         <v>267106</v>
       </c>
       <c r="W31">
-        <v>-30.2</v>
+        <v>-31.4</v>
       </c>
       <c r="X31">
-        <v>33.6</v>
+        <v>35.1</v>
       </c>
       <c r="Y31" t="s">
         <v>304</v>
@@ -6651,7 +6636,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6790,13 +6775,13 @@
         <v>2.3</v>
       </c>
       <c r="S2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="T2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="U2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="V2">
         <v>450381</v>
@@ -6808,7 +6793,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="Y2" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -6819,25 +6804,25 @@
         <v>27</v>
       </c>
       <c r="C3">
-        <v>2609</v>
+        <v>2770</v>
       </c>
       <c r="D3">
-        <v>2610</v>
+        <v>2745</v>
       </c>
       <c r="E3">
-        <v>2530</v>
+        <v>2685</v>
       </c>
       <c r="F3">
-        <v>2630</v>
+        <v>2769</v>
       </c>
       <c r="G3">
-        <v>2445</v>
+        <v>2588</v>
       </c>
       <c r="H3">
-        <v>2504</v>
+        <v>2664</v>
       </c>
       <c r="I3">
-        <v>2564.8</v>
+        <v>2711.4</v>
       </c>
       <c r="J3">
         <v>69</v>
@@ -6849,43 +6834,43 @@
         <v>60.5</v>
       </c>
       <c r="M3">
-        <v>2504.3</v>
+        <v>2650.9</v>
       </c>
       <c r="N3">
-        <v>2625.3</v>
+        <v>2771.9</v>
       </c>
       <c r="O3">
-        <v>-60.8</v>
+        <v>-47.4</v>
       </c>
       <c r="P3">
         <v>60.5</v>
       </c>
       <c r="Q3">
-        <v>-2.4</v>
+        <v>-1.7</v>
       </c>
       <c r="R3">
         <v>2.2</v>
       </c>
       <c r="S3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="U3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="V3">
         <v>623529</v>
       </c>
       <c r="W3">
-        <v>-9.800000000000001</v>
+        <v>-7.6</v>
       </c>
       <c r="X3">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="Y3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -6944,13 +6929,13 @@
         <v>3.9</v>
       </c>
       <c r="S4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T4" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="U4" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="V4">
         <v>463819</v>
@@ -6962,7 +6947,7 @@
         <v>26.4</v>
       </c>
       <c r="Y4" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -7021,13 +7006,13 @@
         <v>4.9</v>
       </c>
       <c r="S5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="U5" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="V5">
         <v>267320</v>
@@ -7039,7 +7024,7 @@
         <v>21.7</v>
       </c>
       <c r="Y5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -7098,13 +7083,13 @@
         <v>4.5</v>
       </c>
       <c r="S6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="U6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="V6">
         <v>44929</v>
@@ -7116,7 +7101,7 @@
         <v>12.5</v>
       </c>
       <c r="Y6" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -7127,73 +7112,73 @@
         <v>31</v>
       </c>
       <c r="C7">
-        <v>3306</v>
+        <v>3544</v>
       </c>
       <c r="D7">
-        <v>3129</v>
+        <v>3359</v>
       </c>
       <c r="E7">
-        <v>3306</v>
+        <v>3530</v>
       </c>
       <c r="F7">
-        <v>3323</v>
+        <v>3545</v>
       </c>
       <c r="G7">
-        <v>2998</v>
+        <v>3200</v>
       </c>
       <c r="H7">
-        <v>4744</v>
+        <v>5104</v>
       </c>
       <c r="I7">
-        <v>3212.400000000001</v>
+        <v>3435.6</v>
       </c>
       <c r="J7">
-        <v>128.6</v>
+        <v>137.1</v>
       </c>
       <c r="K7">
         <v>1.96</v>
       </c>
       <c r="L7">
-        <v>112.7</v>
+        <v>120.2</v>
       </c>
       <c r="M7">
-        <v>3099.700000000001</v>
+        <v>3315.400000000001</v>
       </c>
       <c r="N7">
-        <v>3325.1</v>
+        <v>3555.8</v>
       </c>
       <c r="O7">
-        <v>1531.6</v>
+        <v>1668.4</v>
       </c>
       <c r="P7">
-        <v>112.7</v>
+        <v>120.2</v>
       </c>
       <c r="Q7">
-        <v>47.7</v>
+        <v>48.6</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="S7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="T7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="U7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="V7">
         <v>678927</v>
       </c>
       <c r="W7">
-        <v>225.6</v>
+        <v>245.7</v>
       </c>
       <c r="X7">
-        <v>16.6</v>
+        <v>17.7</v>
       </c>
       <c r="Y7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -7252,13 +7237,13 @@
         <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="T8" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="U8" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="V8">
         <v>319275</v>
@@ -7270,7 +7255,7 @@
         <v>17.2</v>
       </c>
       <c r="Y8" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -7329,13 +7314,13 @@
         <v>2.1</v>
       </c>
       <c r="S9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="T9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="U9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="V9">
         <v>77501</v>
@@ -7347,7 +7332,7 @@
         <v>12</v>
       </c>
       <c r="Y9" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -7358,73 +7343,73 @@
         <v>34</v>
       </c>
       <c r="C10">
-        <v>1615</v>
+        <v>1717</v>
       </c>
       <c r="D10">
-        <v>1599</v>
+        <v>1689</v>
       </c>
       <c r="E10">
-        <v>1514</v>
+        <v>1595</v>
       </c>
       <c r="F10">
-        <v>1477</v>
+        <v>1548</v>
       </c>
       <c r="G10">
-        <v>1423</v>
+        <v>1510</v>
       </c>
       <c r="H10">
-        <v>1321</v>
+        <v>1395</v>
       </c>
       <c r="I10">
-        <v>1525.6</v>
+        <v>1611.8</v>
       </c>
       <c r="J10">
-        <v>72.7</v>
+        <v>79.7</v>
       </c>
       <c r="K10">
         <v>1.96</v>
       </c>
       <c r="L10">
-        <v>63.7</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="M10">
-        <v>1461.9</v>
+        <v>1541.9</v>
       </c>
       <c r="N10">
-        <v>1589.3</v>
+        <v>1681.7</v>
       </c>
       <c r="O10">
-        <v>-204.6</v>
+        <v>-216.8</v>
       </c>
       <c r="P10">
-        <v>63.7</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="Q10">
-        <v>-13.4</v>
+        <v>-13.5</v>
       </c>
       <c r="R10">
         <v>3.5</v>
       </c>
       <c r="S10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="T10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="U10" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="V10">
         <v>356960</v>
       </c>
       <c r="W10">
-        <v>-57.3</v>
+        <v>-60.7</v>
       </c>
       <c r="X10">
-        <v>17.8</v>
+        <v>19.5</v>
       </c>
       <c r="Y10" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -7483,13 +7468,13 @@
         <v>1.5</v>
       </c>
       <c r="S11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="T11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="U11" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="V11">
         <v>3902936</v>
@@ -7501,7 +7486,7 @@
         <v>4.8</v>
       </c>
       <c r="Y11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12" spans="1:25">
@@ -7509,76 +7494,76 @@
         <v>306</v>
       </c>
       <c r="B12" t="s">
-        <v>307</v>
+        <v>36</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>2078</v>
       </c>
       <c r="D12">
-        <v>20398</v>
+        <v>1923</v>
       </c>
       <c r="E12">
-        <v>21370</v>
+        <v>2071</v>
       </c>
       <c r="F12">
-        <v>23518</v>
+        <v>1796</v>
       </c>
       <c r="G12">
-        <v>22434</v>
+        <v>1911</v>
       </c>
       <c r="H12">
-        <v>23733</v>
+        <v>2136</v>
       </c>
       <c r="I12">
-        <v>21929.9</v>
+        <v>1955.8</v>
       </c>
       <c r="J12">
-        <v>8833.799999999999</v>
+        <v>106.6</v>
       </c>
       <c r="K12">
         <v>1.96</v>
       </c>
       <c r="L12">
-        <v>7743.2</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="M12">
-        <v>14186.7</v>
+        <v>1862.4</v>
       </c>
       <c r="N12">
-        <v>29673.1</v>
+        <v>2049.2</v>
       </c>
       <c r="O12">
-        <v>1803.1</v>
+        <v>180.2</v>
       </c>
       <c r="P12">
-        <v>7743.2</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="Q12">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="R12">
-        <v>28.2</v>
+        <v>5</v>
       </c>
       <c r="S12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="T12" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="U12" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="V12">
-        <v>4859032</v>
+        <v>609002</v>
       </c>
       <c r="W12">
-        <v>37.1</v>
+        <v>29.6</v>
       </c>
       <c r="X12">
-        <v>159.4</v>
+        <v>15.3</v>
       </c>
       <c r="Y12" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:25">
@@ -7586,76 +7571,76 @@
         <v>306</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>2078</v>
+        <v>4196</v>
       </c>
       <c r="D13">
-        <v>1923</v>
+        <v>4017</v>
       </c>
       <c r="E13">
-        <v>2071</v>
+        <v>4706</v>
       </c>
       <c r="F13">
-        <v>1796</v>
+        <v>4557</v>
       </c>
       <c r="G13">
-        <v>1911</v>
+        <v>4753</v>
       </c>
       <c r="H13">
-        <v>2136</v>
+        <v>6171</v>
       </c>
       <c r="I13">
-        <v>1955.8</v>
+        <v>4445.799999999999</v>
       </c>
       <c r="J13">
-        <v>106.6</v>
+        <v>290.1</v>
       </c>
       <c r="K13">
         <v>1.96</v>
       </c>
       <c r="L13">
-        <v>93.40000000000001</v>
+        <v>254.3</v>
       </c>
       <c r="M13">
-        <v>1862.4</v>
+        <v>4191.499999999999</v>
       </c>
       <c r="N13">
-        <v>2049.2</v>
+        <v>4700.099999999999</v>
       </c>
       <c r="O13">
-        <v>180.2</v>
+        <v>1725.2</v>
       </c>
       <c r="P13">
-        <v>93.40000000000001</v>
+        <v>254.3</v>
       </c>
       <c r="Q13">
-        <v>9.199999999999999</v>
+        <v>38.8</v>
       </c>
       <c r="R13">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="S13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="T13" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="U13" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="V13">
-        <v>609002</v>
+        <v>643679</v>
       </c>
       <c r="W13">
-        <v>29.6</v>
+        <v>268</v>
       </c>
       <c r="X13">
-        <v>15.3</v>
+        <v>39.5</v>
       </c>
       <c r="Y13" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14" spans="1:25">
@@ -7663,76 +7648,76 @@
         <v>306</v>
       </c>
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>29</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>34</v>
+      </c>
+      <c r="G14">
+        <v>27</v>
+      </c>
+      <c r="H14">
         <v>37</v>
       </c>
-      <c r="C14">
-        <v>4196</v>
-      </c>
-      <c r="D14">
-        <v>4017</v>
-      </c>
-      <c r="E14">
-        <v>4706</v>
-      </c>
-      <c r="F14">
-        <v>4557</v>
-      </c>
-      <c r="G14">
-        <v>4753</v>
-      </c>
-      <c r="H14">
-        <v>6171</v>
-      </c>
       <c r="I14">
-        <v>4445.799999999999</v>
+        <v>29.8</v>
       </c>
       <c r="J14">
-        <v>290.1</v>
+        <v>7</v>
       </c>
       <c r="K14">
         <v>1.96</v>
       </c>
       <c r="L14">
-        <v>254.3</v>
+        <v>6.1</v>
       </c>
       <c r="M14">
-        <v>4191.499999999999</v>
+        <v>23.7</v>
       </c>
       <c r="N14">
-        <v>4700.099999999999</v>
+        <v>35.9</v>
       </c>
       <c r="O14">
-        <v>1725.2</v>
+        <v>7.2</v>
       </c>
       <c r="P14">
-        <v>254.3</v>
+        <v>6.1</v>
       </c>
       <c r="Q14">
-        <v>38.8</v>
+        <v>24.2</v>
       </c>
       <c r="R14">
-        <v>7.5</v>
+        <v>21.1</v>
       </c>
       <c r="S14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="T14" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="U14" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="V14">
-        <v>643679</v>
+        <v>16981</v>
       </c>
       <c r="W14">
-        <v>268</v>
+        <v>42.4</v>
       </c>
       <c r="X14">
-        <v>39.5</v>
+        <v>35.9</v>
       </c>
       <c r="Y14" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15" spans="1:25">
@@ -7740,76 +7725,76 @@
         <v>306</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>6803</v>
       </c>
       <c r="D15">
-        <v>40</v>
+        <v>6072</v>
       </c>
       <c r="E15">
-        <v>19</v>
+        <v>6541</v>
       </c>
       <c r="F15">
-        <v>34</v>
+        <v>6096</v>
       </c>
       <c r="G15">
-        <v>27</v>
+        <v>6016</v>
       </c>
       <c r="H15">
-        <v>37</v>
+        <v>6189</v>
       </c>
       <c r="I15">
-        <v>29.8</v>
+        <v>6305.6</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>311.5</v>
       </c>
       <c r="K15">
         <v>1.96</v>
       </c>
       <c r="L15">
-        <v>6.1</v>
+        <v>273</v>
       </c>
       <c r="M15">
-        <v>23.7</v>
+        <v>6032.6</v>
       </c>
       <c r="N15">
-        <v>35.9</v>
+        <v>6578.6</v>
       </c>
       <c r="O15">
-        <v>7.2</v>
+        <v>-116.6</v>
       </c>
       <c r="P15">
-        <v>6.1</v>
+        <v>273</v>
       </c>
       <c r="Q15">
-        <v>24.2</v>
+        <v>-1.8</v>
       </c>
       <c r="R15">
-        <v>21.1</v>
+        <v>4.1</v>
       </c>
       <c r="S15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="T15" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="U15" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="V15">
-        <v>16981</v>
+        <v>3471014</v>
       </c>
       <c r="W15">
-        <v>42.4</v>
+        <v>-3.4</v>
       </c>
       <c r="X15">
-        <v>35.9</v>
+        <v>7.9</v>
       </c>
       <c r="Y15" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:25">
@@ -7817,76 +7802,76 @@
         <v>306</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C16">
-        <v>6803</v>
+        <v>783</v>
       </c>
       <c r="D16">
-        <v>6072</v>
+        <v>840</v>
       </c>
       <c r="E16">
-        <v>6541</v>
+        <v>874</v>
       </c>
       <c r="F16">
-        <v>6096</v>
+        <v>927</v>
       </c>
       <c r="G16">
-        <v>6016</v>
+        <v>807</v>
       </c>
       <c r="H16">
-        <v>6189</v>
+        <v>951</v>
       </c>
       <c r="I16">
-        <v>6305.6</v>
+        <v>846.2000000000002</v>
       </c>
       <c r="J16">
-        <v>311.5</v>
+        <v>50.7</v>
       </c>
       <c r="K16">
         <v>1.96</v>
       </c>
       <c r="L16">
-        <v>273</v>
+        <v>44.4</v>
       </c>
       <c r="M16">
-        <v>6032.6</v>
+        <v>801.8000000000002</v>
       </c>
       <c r="N16">
-        <v>6578.6</v>
+        <v>890.6000000000001</v>
       </c>
       <c r="O16">
-        <v>-116.6</v>
+        <v>104.8</v>
       </c>
       <c r="P16">
-        <v>273</v>
+        <v>44.4</v>
       </c>
       <c r="Q16">
-        <v>-1.8</v>
+        <v>12.4</v>
       </c>
       <c r="R16">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="S16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="T16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="U16" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="V16">
-        <v>3471014</v>
+        <v>109804</v>
       </c>
       <c r="W16">
-        <v>-3.4</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="X16">
-        <v>7.9</v>
+        <v>40.5</v>
       </c>
       <c r="Y16" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -7894,76 +7879,76 @@
         <v>306</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17">
-        <v>783</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>840</v>
+        <v>12</v>
       </c>
       <c r="E17">
-        <v>874</v>
+        <v>6</v>
       </c>
       <c r="F17">
-        <v>927</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>807</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>951</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>846.2000000000002</v>
+        <v>6.2</v>
       </c>
       <c r="J17">
-        <v>50.7</v>
+        <v>3.4</v>
       </c>
       <c r="K17">
         <v>1.96</v>
       </c>
       <c r="L17">
-        <v>44.4</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>801.8000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="N17">
-        <v>890.6000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O17">
-        <v>104.8</v>
+        <v>-3.2</v>
       </c>
       <c r="P17">
-        <v>44.4</v>
+        <v>3</v>
       </c>
       <c r="Q17">
-        <v>12.4</v>
+        <v>-51.6</v>
       </c>
       <c r="R17">
-        <v>5.6</v>
+        <v>15.8</v>
       </c>
       <c r="S17" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="T17" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="U17" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="V17">
-        <v>109804</v>
+        <v>2174</v>
       </c>
       <c r="W17">
-        <v>95.40000000000001</v>
+        <v>-147.2</v>
       </c>
       <c r="X17">
-        <v>40.5</v>
+        <v>138</v>
       </c>
       <c r="Y17" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="18" spans="1:25">
@@ -7971,76 +7956,76 @@
         <v>306</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C18">
-        <v>7</v>
+        <v>1166</v>
       </c>
       <c r="D18">
-        <v>12</v>
+        <v>1134</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>1127</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>1156</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1199</v>
       </c>
       <c r="H18">
-        <v>3</v>
+        <v>1375</v>
       </c>
       <c r="I18">
-        <v>6.2</v>
+        <v>1156.4</v>
       </c>
       <c r="J18">
-        <v>3.4</v>
+        <v>25.6</v>
       </c>
       <c r="K18">
         <v>1.96</v>
       </c>
       <c r="L18">
-        <v>3</v>
+        <v>22.4</v>
       </c>
       <c r="M18">
-        <v>3.2</v>
+        <v>1134</v>
       </c>
       <c r="N18">
-        <v>9.199999999999999</v>
+        <v>1178.8</v>
       </c>
       <c r="O18">
-        <v>-3.2</v>
+        <v>218.6</v>
       </c>
       <c r="P18">
-        <v>3</v>
+        <v>22.4</v>
       </c>
       <c r="Q18">
-        <v>-51.6</v>
+        <v>18.9</v>
       </c>
       <c r="R18">
-        <v>15.8</v>
+        <v>2.3</v>
       </c>
       <c r="S18" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="T18" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="U18" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="V18">
-        <v>2174</v>
+        <v>154540</v>
       </c>
       <c r="W18">
-        <v>-147.2</v>
+        <v>141.5</v>
       </c>
       <c r="X18">
-        <v>138</v>
+        <v>14.4</v>
       </c>
       <c r="Y18" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:25">
@@ -8048,76 +8033,76 @@
         <v>306</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C19">
-        <v>1166</v>
+        <v>73</v>
       </c>
       <c r="D19">
-        <v>1134</v>
+        <v>81</v>
       </c>
       <c r="E19">
-        <v>1127</v>
+        <v>101</v>
       </c>
       <c r="F19">
-        <v>1156</v>
+        <v>79</v>
       </c>
       <c r="G19">
-        <v>1199</v>
+        <v>79</v>
       </c>
       <c r="H19">
-        <v>1375</v>
+        <v>87</v>
       </c>
       <c r="I19">
-        <v>1156.4</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="J19">
-        <v>25.6</v>
+        <v>9.6</v>
       </c>
       <c r="K19">
         <v>1.96</v>
       </c>
       <c r="L19">
-        <v>22.4</v>
+        <v>8.4</v>
       </c>
       <c r="M19">
-        <v>1134</v>
+        <v>74.19999999999999</v>
       </c>
       <c r="N19">
-        <v>1178.8</v>
+        <v>91</v>
       </c>
       <c r="O19">
-        <v>218.6</v>
+        <v>4.4</v>
       </c>
       <c r="P19">
-        <v>22.4</v>
+        <v>8.4</v>
       </c>
       <c r="Q19">
-        <v>18.9</v>
+        <v>5.3</v>
       </c>
       <c r="R19">
-        <v>2.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="T19" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="U19" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="V19">
-        <v>154540</v>
+        <v>27510</v>
       </c>
       <c r="W19">
-        <v>141.5</v>
+        <v>16</v>
       </c>
       <c r="X19">
-        <v>14.4</v>
+        <v>30.5</v>
       </c>
       <c r="Y19" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:25">
@@ -8125,76 +8110,76 @@
         <v>306</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D20">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="E20">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F20">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G20">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H20">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I20">
-        <v>82.59999999999999</v>
+        <v>78.99999999999999</v>
       </c>
       <c r="J20">
-        <v>9.6</v>
+        <v>8.9</v>
       </c>
       <c r="K20">
         <v>1.96</v>
       </c>
       <c r="L20">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="M20">
-        <v>74.19999999999999</v>
+        <v>71.19999999999999</v>
       </c>
       <c r="N20">
-        <v>91</v>
+        <v>86.79999999999998</v>
       </c>
       <c r="O20">
-        <v>4.4</v>
+        <v>-2</v>
       </c>
       <c r="P20">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="Q20">
-        <v>5.3</v>
+        <v>-2.5</v>
       </c>
       <c r="R20">
-        <v>9.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S20" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="T20" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="U20" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="V20">
-        <v>27510</v>
+        <v>28443</v>
       </c>
       <c r="W20">
-        <v>16</v>
+        <v>-7</v>
       </c>
       <c r="X20">
-        <v>30.5</v>
+        <v>27.4</v>
       </c>
       <c r="Y20" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:25">
@@ -8202,76 +8187,76 @@
         <v>306</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="D21">
+        <v>62</v>
+      </c>
+      <c r="E21">
+        <v>83</v>
+      </c>
+      <c r="F21">
+        <v>62</v>
+      </c>
+      <c r="G21">
         <v>69</v>
       </c>
-      <c r="E21">
-        <v>94</v>
-      </c>
-      <c r="F21">
-        <v>72</v>
-      </c>
-      <c r="G21">
-        <v>83</v>
-      </c>
       <c r="H21">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="I21">
-        <v>78.99999999999999</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="J21">
-        <v>8.9</v>
+        <v>10.5</v>
       </c>
       <c r="K21">
         <v>1.96</v>
       </c>
       <c r="L21">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M21">
-        <v>71.19999999999999</v>
+        <v>56.2</v>
       </c>
       <c r="N21">
-        <v>86.79999999999998</v>
+        <v>74.60000000000001</v>
       </c>
       <c r="O21">
-        <v>-2</v>
+        <v>20.6</v>
       </c>
       <c r="P21">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q21">
-        <v>-2.5</v>
+        <v>31.5</v>
       </c>
       <c r="R21">
-        <v>8.800000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="S21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="T21" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="U21" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="V21">
-        <v>28443</v>
+        <v>36223</v>
       </c>
       <c r="W21">
-        <v>-7</v>
+        <v>56.9</v>
       </c>
       <c r="X21">
-        <v>27.4</v>
+        <v>25.4</v>
       </c>
       <c r="Y21" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -8279,76 +8264,76 @@
         <v>306</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C22">
-        <v>51</v>
+        <v>4099</v>
       </c>
       <c r="D22">
-        <v>62</v>
+        <v>3987</v>
       </c>
       <c r="E22">
-        <v>83</v>
+        <v>3670</v>
       </c>
       <c r="F22">
-        <v>62</v>
+        <v>3862</v>
       </c>
       <c r="G22">
-        <v>69</v>
+        <v>3599</v>
       </c>
       <c r="H22">
-        <v>86</v>
+        <v>4041</v>
       </c>
       <c r="I22">
-        <v>65.40000000000001</v>
+        <v>3843.4</v>
       </c>
       <c r="J22">
-        <v>10.5</v>
+        <v>187.7</v>
       </c>
       <c r="K22">
         <v>1.96</v>
       </c>
       <c r="L22">
-        <v>9.199999999999999</v>
+        <v>164.5</v>
       </c>
       <c r="M22">
-        <v>56.2</v>
+        <v>3678.9</v>
       </c>
       <c r="N22">
-        <v>74.60000000000001</v>
+        <v>4007.9</v>
       </c>
       <c r="O22">
-        <v>20.6</v>
+        <v>197.6</v>
       </c>
       <c r="P22">
-        <v>9.199999999999999</v>
+        <v>164.5</v>
       </c>
       <c r="Q22">
-        <v>31.5</v>
+        <v>5.1</v>
       </c>
       <c r="R22">
-        <v>16.2</v>
+        <v>4.3</v>
       </c>
       <c r="S22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="U22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="V22">
-        <v>36223</v>
+        <v>996048</v>
       </c>
       <c r="W22">
-        <v>56.9</v>
+        <v>19.8</v>
       </c>
       <c r="X22">
-        <v>25.4</v>
+        <v>16.6</v>
       </c>
       <c r="Y22" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="23" spans="1:25">
@@ -8356,76 +8341,76 @@
         <v>306</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23">
-        <v>4099</v>
+        <v>995</v>
       </c>
       <c r="D23">
-        <v>3987</v>
+        <v>1082</v>
       </c>
       <c r="E23">
-        <v>3670</v>
+        <v>1011</v>
       </c>
       <c r="F23">
-        <v>3862</v>
+        <v>1002</v>
       </c>
       <c r="G23">
-        <v>3599</v>
+        <v>903</v>
       </c>
       <c r="H23">
-        <v>4041</v>
+        <v>791</v>
       </c>
       <c r="I23">
-        <v>3843.4</v>
+        <v>998.5999999999999</v>
       </c>
       <c r="J23">
-        <v>187.7</v>
+        <v>57</v>
       </c>
       <c r="K23">
         <v>1.96</v>
       </c>
       <c r="L23">
-        <v>164.5</v>
+        <v>50</v>
       </c>
       <c r="M23">
-        <v>3678.9</v>
+        <v>948.5999999999999</v>
       </c>
       <c r="N23">
-        <v>4007.9</v>
+        <v>1048.6</v>
       </c>
       <c r="O23">
-        <v>197.6</v>
+        <v>-207.6</v>
       </c>
       <c r="P23">
-        <v>164.5</v>
+        <v>50</v>
       </c>
       <c r="Q23">
-        <v>5.1</v>
+        <v>-20.8</v>
       </c>
       <c r="R23">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="S23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="T23" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="U23" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="V23">
-        <v>996048</v>
+        <v>275272</v>
       </c>
       <c r="W23">
-        <v>19.8</v>
+        <v>-75.40000000000001</v>
       </c>
       <c r="X23">
-        <v>16.6</v>
+        <v>18.1</v>
       </c>
       <c r="Y23" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -8433,76 +8418,76 @@
         <v>306</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C24">
-        <v>995</v>
+        <v>14691</v>
       </c>
       <c r="D24">
-        <v>1082</v>
+        <v>15318</v>
       </c>
       <c r="E24">
-        <v>1011</v>
+        <v>16420</v>
       </c>
       <c r="F24">
-        <v>1002</v>
+        <v>17367</v>
       </c>
       <c r="G24">
-        <v>903</v>
+        <v>17518</v>
       </c>
       <c r="H24">
-        <v>791</v>
+        <v>23810</v>
       </c>
       <c r="I24">
-        <v>998.5999999999999</v>
+        <v>16262.8</v>
       </c>
       <c r="J24">
-        <v>57</v>
+        <v>1112</v>
       </c>
       <c r="K24">
         <v>1.96</v>
       </c>
       <c r="L24">
-        <v>50</v>
+        <v>974.7</v>
       </c>
       <c r="M24">
-        <v>948.5999999999999</v>
+        <v>15288.1</v>
       </c>
       <c r="N24">
-        <v>1048.6</v>
+        <v>17237.5</v>
       </c>
       <c r="O24">
-        <v>-207.6</v>
+        <v>7547.2</v>
       </c>
       <c r="P24">
-        <v>50</v>
+        <v>974.7</v>
       </c>
       <c r="Q24">
-        <v>-20.8</v>
+        <v>46.4</v>
       </c>
       <c r="R24">
-        <v>3.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="S24" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="T24" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="U24" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="V24">
-        <v>275272</v>
+        <v>2447824</v>
       </c>
       <c r="W24">
-        <v>-75.40000000000001</v>
+        <v>308.3</v>
       </c>
       <c r="X24">
-        <v>18.1</v>
+        <v>39.8</v>
       </c>
       <c r="Y24" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:25">
@@ -8510,76 +8495,76 @@
         <v>306</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>14691</v>
+        <v>2512</v>
       </c>
       <c r="D25">
-        <v>15318</v>
+        <v>2448</v>
       </c>
       <c r="E25">
-        <v>16420</v>
+        <v>2320</v>
       </c>
       <c r="F25">
-        <v>17367</v>
+        <v>2496</v>
       </c>
       <c r="G25">
-        <v>17518</v>
+        <v>2462</v>
       </c>
       <c r="H25">
-        <v>23810</v>
+        <v>3021</v>
       </c>
       <c r="I25">
-        <v>16262.8</v>
+        <v>2447.6</v>
       </c>
       <c r="J25">
-        <v>1112</v>
+        <v>67.8</v>
       </c>
       <c r="K25">
         <v>1.96</v>
       </c>
       <c r="L25">
-        <v>974.7</v>
+        <v>59.4</v>
       </c>
       <c r="M25">
-        <v>15288.1</v>
+        <v>2388.2</v>
       </c>
       <c r="N25">
-        <v>17237.5</v>
+        <v>2507</v>
       </c>
       <c r="O25">
-        <v>7547.2</v>
+        <v>573.4</v>
       </c>
       <c r="P25">
-        <v>974.7</v>
+        <v>59.4</v>
       </c>
       <c r="Q25">
-        <v>46.4</v>
+        <v>23.4</v>
       </c>
       <c r="R25">
-        <v>8.300000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="S25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="T25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="U25" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="V25">
-        <v>2447824</v>
+        <v>622912</v>
       </c>
       <c r="W25">
-        <v>308.3</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="X25">
-        <v>39.8</v>
+        <v>9.5</v>
       </c>
       <c r="Y25" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:25">
@@ -8587,76 +8572,76 @@
         <v>306</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>2512</v>
+        <v>6001</v>
       </c>
       <c r="D26">
-        <v>2448</v>
+        <v>5978</v>
       </c>
       <c r="E26">
-        <v>2320</v>
+        <v>6588</v>
       </c>
       <c r="F26">
-        <v>2496</v>
+        <v>7017</v>
       </c>
       <c r="G26">
-        <v>2462</v>
+        <v>7206</v>
       </c>
       <c r="H26">
-        <v>3021</v>
+        <v>8520</v>
       </c>
       <c r="I26">
-        <v>2447.6</v>
+        <v>6558.000000000002</v>
       </c>
       <c r="J26">
-        <v>67.8</v>
+        <v>505.6</v>
       </c>
       <c r="K26">
         <v>1.96</v>
       </c>
       <c r="L26">
-        <v>59.4</v>
+        <v>443.2</v>
       </c>
       <c r="M26">
-        <v>2388.2</v>
+        <v>6114.800000000002</v>
       </c>
       <c r="N26">
-        <v>2507</v>
+        <v>7001.200000000002</v>
       </c>
       <c r="O26">
-        <v>573.4</v>
+        <v>1962</v>
       </c>
       <c r="P26">
-        <v>59.4</v>
+        <v>443.2</v>
       </c>
       <c r="Q26">
-        <v>23.4</v>
+        <v>29.9</v>
       </c>
       <c r="R26">
-        <v>2.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="S26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="T26" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="U26" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="V26">
-        <v>622912</v>
+        <v>1201894</v>
       </c>
       <c r="W26">
-        <v>92.09999999999999</v>
+        <v>163.2</v>
       </c>
       <c r="X26">
-        <v>9.5</v>
+        <v>36.9</v>
       </c>
       <c r="Y26" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:25">
@@ -8664,76 +8649,76 @@
         <v>306</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C27">
-        <v>6001</v>
+        <v>1654</v>
       </c>
       <c r="D27">
-        <v>5978</v>
+        <v>1783</v>
       </c>
       <c r="E27">
-        <v>6588</v>
+        <v>2168</v>
       </c>
       <c r="F27">
-        <v>7017</v>
+        <v>1971</v>
       </c>
       <c r="G27">
-        <v>7206</v>
+        <v>2108</v>
       </c>
       <c r="H27">
-        <v>8520</v>
+        <v>2072</v>
       </c>
       <c r="I27">
-        <v>6558.000000000002</v>
+        <v>1936.8</v>
       </c>
       <c r="J27">
-        <v>505.6</v>
+        <v>193.7</v>
       </c>
       <c r="K27">
         <v>1.96</v>
       </c>
       <c r="L27">
-        <v>443.2</v>
+        <v>169.8</v>
       </c>
       <c r="M27">
-        <v>6114.800000000002</v>
+        <v>1767</v>
       </c>
       <c r="N27">
-        <v>7001.200000000002</v>
+        <v>2106.6</v>
       </c>
       <c r="O27">
-        <v>1962</v>
+        <v>135.2</v>
       </c>
       <c r="P27">
-        <v>443.2</v>
+        <v>169.8</v>
       </c>
       <c r="Q27">
-        <v>29.9</v>
+        <v>7</v>
       </c>
       <c r="R27">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="S27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="T27" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="U27" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="V27">
-        <v>1201894</v>
+        <v>513954</v>
       </c>
       <c r="W27">
-        <v>163.2</v>
+        <v>26.3</v>
       </c>
       <c r="X27">
-        <v>36.9</v>
+        <v>33</v>
       </c>
       <c r="Y27" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="28" spans="1:25">
@@ -8741,76 +8726,76 @@
         <v>306</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28">
-        <v>1654</v>
+        <v>1950</v>
       </c>
       <c r="D28">
-        <v>1783</v>
+        <v>1858</v>
       </c>
       <c r="E28">
-        <v>2168</v>
+        <v>2060</v>
       </c>
       <c r="F28">
-        <v>1971</v>
+        <v>2182</v>
       </c>
       <c r="G28">
-        <v>2108</v>
+        <v>2129</v>
       </c>
       <c r="H28">
-        <v>2072</v>
+        <v>3569</v>
       </c>
       <c r="I28">
-        <v>1936.8</v>
+        <v>2035.8</v>
       </c>
       <c r="J28">
-        <v>193.7</v>
+        <v>118</v>
       </c>
       <c r="K28">
         <v>1.96</v>
       </c>
       <c r="L28">
-        <v>169.8</v>
+        <v>103.4</v>
       </c>
       <c r="M28">
-        <v>1767</v>
+        <v>1932.4</v>
       </c>
       <c r="N28">
-        <v>2106.6</v>
+        <v>2139.2</v>
       </c>
       <c r="O28">
-        <v>135.2</v>
+        <v>1533.2</v>
       </c>
       <c r="P28">
-        <v>169.8</v>
+        <v>103.4</v>
       </c>
       <c r="Q28">
-        <v>7</v>
+        <v>75.3</v>
       </c>
       <c r="R28">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="S28" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="T28" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="U28" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="V28">
-        <v>513954</v>
+        <v>329405</v>
       </c>
       <c r="W28">
-        <v>26.3</v>
+        <v>465.4</v>
       </c>
       <c r="X28">
-        <v>33</v>
+        <v>31.4</v>
       </c>
       <c r="Y28" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="29" spans="1:25">
@@ -8818,76 +8803,76 @@
         <v>306</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C29">
-        <v>1415</v>
+        <v>469</v>
       </c>
       <c r="D29">
-        <v>1331</v>
+        <v>489</v>
       </c>
       <c r="E29">
-        <v>1493</v>
+        <v>567</v>
       </c>
       <c r="F29">
-        <v>1562</v>
+        <v>524</v>
       </c>
       <c r="G29">
-        <v>1565</v>
+        <v>547</v>
       </c>
       <c r="H29">
-        <v>2821</v>
+        <v>551</v>
       </c>
       <c r="I29">
-        <v>1473.2</v>
+        <v>519.2</v>
       </c>
       <c r="J29">
-        <v>89.8</v>
+        <v>36.1</v>
       </c>
       <c r="K29">
         <v>1.96</v>
       </c>
       <c r="L29">
-        <v>78.7</v>
+        <v>31.6</v>
       </c>
       <c r="M29">
-        <v>1394.5</v>
+        <v>487.6</v>
       </c>
       <c r="N29">
-        <v>1551.9</v>
+        <v>550.8000000000001</v>
       </c>
       <c r="O29">
-        <v>1347.8</v>
+        <v>31.8</v>
       </c>
       <c r="P29">
-        <v>78.7</v>
+        <v>31.6</v>
       </c>
       <c r="Q29">
-        <v>91.5</v>
+        <v>6.1</v>
       </c>
       <c r="R29">
-        <v>9.699999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="S29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="T29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="U29" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="V29">
-        <v>329405</v>
+        <v>134197</v>
       </c>
       <c r="W29">
-        <v>409.2</v>
+        <v>23.7</v>
       </c>
       <c r="X29">
-        <v>23.9</v>
+        <v>23.5</v>
       </c>
       <c r="Y29" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:25">
@@ -8895,76 +8880,76 @@
         <v>306</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C30">
-        <v>469</v>
+        <v>6438</v>
       </c>
       <c r="D30">
-        <v>489</v>
+        <v>6031</v>
       </c>
       <c r="E30">
-        <v>567</v>
+        <v>6040</v>
       </c>
       <c r="F30">
-        <v>524</v>
+        <v>6371</v>
       </c>
       <c r="G30">
-        <v>547</v>
+        <v>5998</v>
       </c>
       <c r="H30">
-        <v>551</v>
+        <v>7338</v>
       </c>
       <c r="I30">
-        <v>519.2</v>
+        <v>6175.599999999999</v>
       </c>
       <c r="J30">
-        <v>36.1</v>
+        <v>188.6</v>
       </c>
       <c r="K30">
         <v>1.96</v>
       </c>
       <c r="L30">
-        <v>31.6</v>
+        <v>165.3</v>
       </c>
       <c r="M30">
-        <v>487.6</v>
+        <v>6010.299999999999</v>
       </c>
       <c r="N30">
-        <v>550.8000000000001</v>
+        <v>6340.9</v>
       </c>
       <c r="O30">
-        <v>31.8</v>
+        <v>1162.4</v>
       </c>
       <c r="P30">
-        <v>31.6</v>
+        <v>165.3</v>
       </c>
       <c r="Q30">
-        <v>6.1</v>
+        <v>18.8</v>
       </c>
       <c r="R30">
-        <v>6.1</v>
+        <v>3.1</v>
       </c>
       <c r="S30" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="T30" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="U30" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="V30">
-        <v>134197</v>
+        <v>2431759</v>
       </c>
       <c r="W30">
-        <v>23.7</v>
+        <v>47.8</v>
       </c>
       <c r="X30">
-        <v>23.5</v>
+        <v>6.8</v>
       </c>
       <c r="Y30" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="31" spans="1:25">
@@ -8972,76 +8957,76 @@
         <v>306</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31">
-        <v>6438</v>
+        <v>2339</v>
       </c>
       <c r="D31">
-        <v>6031</v>
+        <v>2272</v>
       </c>
       <c r="E31">
-        <v>6040</v>
+        <v>2013</v>
       </c>
       <c r="F31">
-        <v>6371</v>
+        <v>2082</v>
       </c>
       <c r="G31">
-        <v>5998</v>
+        <v>1818</v>
       </c>
       <c r="H31">
-        <v>7338</v>
+        <v>1891</v>
       </c>
       <c r="I31">
-        <v>6175.599999999999</v>
+        <v>2104.8</v>
       </c>
       <c r="J31">
-        <v>188.6</v>
+        <v>186.6</v>
       </c>
       <c r="K31">
         <v>1.96</v>
       </c>
       <c r="L31">
-        <v>165.3</v>
+        <v>163.6</v>
       </c>
       <c r="M31">
-        <v>6010.299999999999</v>
+        <v>1941.2</v>
       </c>
       <c r="N31">
-        <v>6340.9</v>
+        <v>2268.4</v>
       </c>
       <c r="O31">
-        <v>1162.4</v>
+        <v>-213.8</v>
       </c>
       <c r="P31">
-        <v>165.3</v>
+        <v>163.6</v>
       </c>
       <c r="Q31">
-        <v>18.8</v>
+        <v>-10.2</v>
       </c>
       <c r="R31">
-        <v>3.1</v>
+        <v>6.4</v>
       </c>
       <c r="S31" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="T31" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="U31" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="V31">
-        <v>2431759</v>
+        <v>540048</v>
       </c>
       <c r="W31">
-        <v>47.8</v>
+        <v>-39.6</v>
       </c>
       <c r="X31">
-        <v>6.8</v>
+        <v>30.3</v>
       </c>
       <c r="Y31" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="32" spans="1:25">
@@ -9049,153 +9034,76 @@
         <v>306</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C32">
-        <v>2223</v>
+        <v>1379</v>
       </c>
       <c r="D32">
-        <v>2163</v>
+        <v>1262</v>
       </c>
       <c r="E32">
-        <v>1920</v>
+        <v>1277</v>
       </c>
       <c r="F32">
-        <v>1975</v>
+        <v>1241</v>
       </c>
       <c r="G32">
-        <v>1731</v>
+        <v>1241</v>
       </c>
       <c r="H32">
-        <v>1793</v>
+        <v>1179</v>
       </c>
       <c r="I32">
-        <v>2002.4</v>
+        <v>1280</v>
       </c>
       <c r="J32">
-        <v>176.4</v>
+        <v>51.3</v>
       </c>
       <c r="K32">
         <v>1.96</v>
       </c>
       <c r="L32">
-        <v>154.6</v>
+        <v>45</v>
       </c>
       <c r="M32">
-        <v>1847.8</v>
+        <v>1235</v>
       </c>
       <c r="N32">
-        <v>2157</v>
+        <v>1325</v>
       </c>
       <c r="O32">
-        <v>-209.4</v>
+        <v>-101</v>
       </c>
       <c r="P32">
-        <v>154.6</v>
+        <v>45</v>
       </c>
       <c r="Q32">
-        <v>-10.5</v>
+        <v>-7.9</v>
       </c>
       <c r="R32">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="S32" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="T32" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="U32" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="V32">
-        <v>540048</v>
+        <v>430612</v>
       </c>
       <c r="W32">
-        <v>-38.8</v>
+        <v>-23.5</v>
       </c>
       <c r="X32">
-        <v>28.7</v>
+        <v>10.5</v>
       </c>
       <c r="Y32" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="33" spans="1:25">
-      <c r="A33" t="s">
-        <v>306</v>
-      </c>
-      <c r="B33" t="s">
-        <v>56</v>
-      </c>
-      <c r="C33">
-        <v>1379</v>
-      </c>
-      <c r="D33">
-        <v>1262</v>
-      </c>
-      <c r="E33">
-        <v>1277</v>
-      </c>
-      <c r="F33">
-        <v>1241</v>
-      </c>
-      <c r="G33">
-        <v>1241</v>
-      </c>
-      <c r="H33">
-        <v>1179</v>
-      </c>
-      <c r="I33">
-        <v>1280</v>
-      </c>
-      <c r="J33">
-        <v>51.3</v>
-      </c>
-      <c r="K33">
-        <v>1.96</v>
-      </c>
-      <c r="L33">
-        <v>45</v>
-      </c>
-      <c r="M33">
-        <v>1235</v>
-      </c>
-      <c r="N33">
-        <v>1325</v>
-      </c>
-      <c r="O33">
-        <v>-101</v>
-      </c>
-      <c r="P33">
-        <v>45</v>
-      </c>
-      <c r="Q33">
-        <v>-7.9</v>
-      </c>
-      <c r="R33">
-        <v>3.1</v>
-      </c>
-      <c r="S33" t="s">
-        <v>339</v>
-      </c>
-      <c r="T33" t="s">
-        <v>371</v>
-      </c>
-      <c r="U33" t="s">
-        <v>403</v>
-      </c>
-      <c r="V33">
-        <v>430612</v>
-      </c>
-      <c r="W33">
-        <v>-23.5</v>
-      </c>
-      <c r="X33">
-        <v>10.5</v>
-      </c>
-      <c r="Y33" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -9205,7 +9113,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9213,7 +9121,7 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -9222,18 +9130,18 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B2" t="s">
         <v>25</v>
@@ -9253,7 +9161,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s">
         <v>181</v>
@@ -9273,7 +9181,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B4" t="s">
         <v>306</v>
@@ -9293,7 +9201,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -9302,18 +9210,18 @@
         <v>27</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s">
         <v>181</v>
@@ -9322,18 +9230,18 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B7" t="s">
         <v>306</v>
@@ -9342,18 +9250,18 @@
         <v>27</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -9373,7 +9281,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B9" t="s">
         <v>181</v>
@@ -9393,7 +9301,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B10" t="s">
         <v>306</v>
@@ -9413,7 +9321,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -9433,7 +9341,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B12" t="s">
         <v>181</v>
@@ -9453,7 +9361,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B13" t="s">
         <v>306</v>
@@ -9473,7 +9381,7 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -9493,7 +9401,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B15" t="s">
         <v>181</v>
@@ -9513,7 +9421,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B16" t="s">
         <v>306</v>
@@ -9533,7 +9441,7 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
@@ -9542,18 +9450,18 @@
         <v>31</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B18" t="s">
         <v>181</v>
@@ -9562,18 +9470,18 @@
         <v>31</v>
       </c>
       <c r="D18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B19" t="s">
         <v>306</v>
@@ -9582,18 +9490,18 @@
         <v>31</v>
       </c>
       <c r="D19">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -9613,7 +9521,7 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B21" t="s">
         <v>181</v>
@@ -9633,7 +9541,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B22" t="s">
         <v>306</v>
@@ -9653,7 +9561,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
@@ -9673,7 +9581,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B24" t="s">
         <v>181</v>
@@ -9693,7 +9601,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B25" t="s">
         <v>306</v>
@@ -9713,7 +9621,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
@@ -9722,18 +9630,18 @@
         <v>34</v>
       </c>
       <c r="D26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B27" t="s">
         <v>181</v>
@@ -9742,18 +9650,18 @@
         <v>34</v>
       </c>
       <c r="D27">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
       <c r="F27">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B28" t="s">
         <v>306</v>
@@ -9762,18 +9670,18 @@
         <v>34</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
@@ -9793,7 +9701,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B30" t="s">
         <v>181</v>
@@ -9813,7 +9721,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B31" t="s">
         <v>306</v>
@@ -9833,30 +9741,30 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B32" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>307</v>
+        <v>36</v>
       </c>
       <c r="D32">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
@@ -9873,10 +9781,10 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B34" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
@@ -9893,30 +9801,30 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B35" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C36" t="s">
         <v>37</v>
@@ -9933,10 +9841,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B37" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C37" t="s">
         <v>37</v>
@@ -9953,30 +9861,30 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B38" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C39" t="s">
         <v>38</v>
@@ -9993,10 +9901,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B40" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C40" t="s">
         <v>38</v>
@@ -10013,30 +9921,30 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B41" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D41">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B42" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C42" t="s">
         <v>39</v>
@@ -10053,10 +9961,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C43" t="s">
         <v>39</v>
@@ -10073,30 +9981,30 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B44" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D44">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C45" t="s">
         <v>40</v>
@@ -10113,10 +10021,10 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B46" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C46" t="s">
         <v>40</v>
@@ -10133,30 +10041,30 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B47" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D47">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C48" t="s">
         <v>41</v>
@@ -10173,10 +10081,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B49" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C49" t="s">
         <v>41</v>
@@ -10193,30 +10101,30 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B50" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D50">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
       <c r="F50">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C51" t="s">
         <v>42</v>
@@ -10233,10 +10141,10 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B52" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C52" t="s">
         <v>42</v>
@@ -10253,30 +10161,30 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B53" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C53" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D53">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
       <c r="F53">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C54" t="s">
         <v>43</v>
@@ -10293,10 +10201,10 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C55" t="s">
         <v>43</v>
@@ -10313,30 +10221,30 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B56" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D56">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
       <c r="F56">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C57" t="s">
         <v>44</v>
@@ -10353,10 +10261,10 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B58" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C58" t="s">
         <v>44</v>
@@ -10373,30 +10281,30 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B59" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D59">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
       <c r="F59">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B60" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C60" t="s">
         <v>45</v>
@@ -10413,10 +10321,10 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B61" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C61" t="s">
         <v>45</v>
@@ -10433,30 +10341,30 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B62" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D62">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s">
         <v>46</v>
@@ -10473,10 +10381,10 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C64" t="s">
         <v>46</v>
@@ -10493,13 +10401,13 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B65" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D65">
         <v>17</v>
@@ -10513,10 +10421,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C66" t="s">
         <v>47</v>
@@ -10533,10 +10441,10 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B67" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C67" t="s">
         <v>47</v>
@@ -10553,30 +10461,30 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B68" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D68">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B69" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C69" t="s">
         <v>48</v>
@@ -10593,10 +10501,10 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B70" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C70" t="s">
         <v>48</v>
@@ -10613,30 +10521,30 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B71" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C71" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D71">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E71">
         <v>1</v>
       </c>
       <c r="F71">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C72" t="s">
         <v>49</v>
@@ -10653,10 +10561,10 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B73" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C73" t="s">
         <v>49</v>
@@ -10673,30 +10581,30 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B74" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C74" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D74">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B75" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C75" t="s">
         <v>50</v>
@@ -10713,10 +10621,10 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B76" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C76" t="s">
         <v>50</v>
@@ -10733,30 +10641,30 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B77" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D77">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C78" t="s">
         <v>51</v>
@@ -10773,10 +10681,10 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B79" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C79" t="s">
         <v>51</v>
@@ -10793,90 +10701,90 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B80" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C80" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D80">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E80">
         <v>1</v>
       </c>
       <c r="F80">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C81" t="s">
         <v>52</v>
       </c>
       <c r="D81">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B82" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C82" t="s">
         <v>52</v>
       </c>
       <c r="D82">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B83" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D83">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C84" t="s">
         <v>53</v>
@@ -10893,10 +10801,10 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B85" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C85" t="s">
         <v>53</v>
@@ -10913,30 +10821,30 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B86" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D86">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C87" t="s">
         <v>54</v>
@@ -10953,10 +10861,10 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B88" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C88" t="s">
         <v>54</v>
@@ -10973,90 +10881,90 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B89" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D89">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B90" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C90" t="s">
         <v>55</v>
       </c>
       <c r="D90">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
       <c r="F90">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B91" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C91" t="s">
         <v>55</v>
       </c>
       <c r="D91">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
       <c r="F91">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B92" t="s">
-        <v>306</v>
+        <v>25</v>
       </c>
       <c r="C92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D92">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
       <c r="F92">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B93" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C93" t="s">
         <v>56</v>
@@ -11073,10 +10981,10 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B94" t="s">
-        <v>181</v>
+        <v>306</v>
       </c>
       <c r="C94" t="s">
         <v>56</v>
@@ -11088,26 +10996,6 @@
         <v>1</v>
       </c>
       <c r="F94">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>440</v>
-      </c>
-      <c r="B95" t="s">
-        <v>306</v>
-      </c>
-      <c r="C95" t="s">
-        <v>56</v>
-      </c>
-      <c r="D95">
-        <v>16</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95">
         <v>16</v>
       </c>
     </row>
